--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H2">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>1440.601905875513</v>
+        <v>2972.356114896877</v>
       </c>
       <c r="R2">
-        <v>1440.601905875513</v>
+        <v>26751.20503407189</v>
       </c>
       <c r="S2">
-        <v>0.0009784738257969719</v>
+        <v>0.001866567546804724</v>
       </c>
       <c r="T2">
-        <v>0.0009784738257969719</v>
+        <v>0.001866567546804724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H3">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>1714.632496508691</v>
+        <v>3267.999998493497</v>
       </c>
       <c r="R3">
-        <v>1714.632496508691</v>
+        <v>29411.99998644147</v>
       </c>
       <c r="S3">
-        <v>0.001164598638841207</v>
+        <v>0.002052224734975096</v>
       </c>
       <c r="T3">
-        <v>0.001164598638841207</v>
+        <v>0.002052224734975096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H4">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>626.3287890222799</v>
+        <v>1318.243889268985</v>
       </c>
       <c r="R4">
-        <v>626.3287890222799</v>
+        <v>11864.19500342087</v>
       </c>
       <c r="S4">
-        <v>0.0004254099094981848</v>
+        <v>0.0008278251889641077</v>
       </c>
       <c r="T4">
-        <v>0.0004254099094981848</v>
+        <v>0.0008278251889641079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H5">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>815.3490192292375</v>
+        <v>1811.394276131194</v>
       </c>
       <c r="R5">
-        <v>815.3490192292375</v>
+        <v>16302.54848518075</v>
       </c>
       <c r="S5">
-        <v>0.0005537946818973463</v>
+        <v>0.001137511670741252</v>
       </c>
       <c r="T5">
-        <v>0.0005537946818973463</v>
+        <v>0.001137511670741252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H6">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>445755.3588200764</v>
+        <v>485435.0262801322</v>
       </c>
       <c r="R6">
-        <v>445755.3588200764</v>
+        <v>4368915.23652119</v>
       </c>
       <c r="S6">
-        <v>0.3027623034061652</v>
+        <v>0.3048414224646933</v>
       </c>
       <c r="T6">
-        <v>0.3027623034061652</v>
+        <v>0.3048414224646933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H7">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>530546.7253712218</v>
+        <v>533718.5733571503</v>
       </c>
       <c r="R7">
-        <v>530546.7253712218</v>
+        <v>4803467.160214352</v>
       </c>
       <c r="S7">
-        <v>0.3603536008253025</v>
+        <v>0.3351623189302592</v>
       </c>
       <c r="T7">
-        <v>0.3603536008253025</v>
+        <v>0.3351623189302592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H8">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>193800.5308415133</v>
+        <v>215291.0796333418</v>
       </c>
       <c r="R8">
-        <v>193800.5308415133</v>
+        <v>1937619.716700076</v>
       </c>
       <c r="S8">
-        <v>0.1316316090382612</v>
+        <v>0.1351975762076844</v>
       </c>
       <c r="T8">
-        <v>0.1316316090382612</v>
+        <v>0.1351975762076844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H9">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>252287.736915942</v>
+        <v>295830.7127569519</v>
       </c>
       <c r="R9">
-        <v>252287.736915942</v>
+        <v>2662476.414812567</v>
       </c>
       <c r="S9">
-        <v>0.171356810049322</v>
+        <v>0.1857745123515909</v>
       </c>
       <c r="T9">
-        <v>0.171356810049322</v>
+        <v>0.185774512351591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H10">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>276.1503120622064</v>
+        <v>315.6227020749457</v>
       </c>
       <c r="R10">
-        <v>276.1503120622064</v>
+        <v>2840.604318674512</v>
       </c>
       <c r="S10">
-        <v>0.000187564552869531</v>
+        <v>0.000198203401596228</v>
       </c>
       <c r="T10">
-        <v>0.000187564552869531</v>
+        <v>0.000198203401596228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H11">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>328.679489490965</v>
+        <v>347.0159530131609</v>
       </c>
       <c r="R11">
-        <v>328.679489490965</v>
+        <v>3123.143577118448</v>
       </c>
       <c r="S11">
-        <v>0.0002232429904691595</v>
+        <v>0.0002179176017542405</v>
       </c>
       <c r="T11">
-        <v>0.0002232429904691595</v>
+        <v>0.0002179176017542405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H12">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>120.0615449949242</v>
+        <v>139.9790880505911</v>
       </c>
       <c r="R12">
-        <v>120.0615449949242</v>
+        <v>1259.81179245532</v>
       </c>
       <c r="S12">
-        <v>8.154721910553288E-05</v>
+        <v>8.79034721570094E-05</v>
       </c>
       <c r="T12">
-        <v>8.154721910553288E-05</v>
+        <v>8.790347215700943E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H13">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>156.2950077890738</v>
+        <v>192.3447709008626</v>
       </c>
       <c r="R13">
-        <v>156.2950077890738</v>
+        <v>1731.102938107764</v>
       </c>
       <c r="S13">
-        <v>0.0001061574148976294</v>
+        <v>0.0001207878508775507</v>
       </c>
       <c r="T13">
-        <v>0.0001061574148976294</v>
+        <v>0.0001207878508775507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H14">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>13922.53140461984</v>
+        <v>16425.00294723358</v>
       </c>
       <c r="R14">
-        <v>13922.53140461984</v>
+        <v>147825.0265251022</v>
       </c>
       <c r="S14">
-        <v>0.009456347734024206</v>
+        <v>0.01031450346875472</v>
       </c>
       <c r="T14">
-        <v>0.009456347734024206</v>
+        <v>0.01031450346875472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H15">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>16570.86852562225</v>
+        <v>18058.70748050568</v>
       </c>
       <c r="R15">
-        <v>16570.86852562225</v>
+        <v>162528.3673245511</v>
       </c>
       <c r="S15">
-        <v>0.01125512957945881</v>
+        <v>0.0113404302907766</v>
       </c>
       <c r="T15">
-        <v>0.01125512957945881</v>
+        <v>0.0113404302907766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H16">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>6053.082533915331</v>
+        <v>7284.510647260362</v>
       </c>
       <c r="R16">
-        <v>6053.082533915331</v>
+        <v>65560.59582534326</v>
       </c>
       <c r="S16">
-        <v>0.004111325134770971</v>
+        <v>0.004574496003484899</v>
       </c>
       <c r="T16">
-        <v>0.004111325134770971</v>
+        <v>0.0045744960034849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H17">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>7879.84680545465</v>
+        <v>10009.62037319311</v>
       </c>
       <c r="R17">
-        <v>7879.84680545465</v>
+        <v>90086.583358738</v>
       </c>
       <c r="S17">
-        <v>0.00535208499931939</v>
+        <v>0.006285798814885902</v>
       </c>
       <c r="T17">
-        <v>0.00535208499931939</v>
+        <v>0.006285798814885902</v>
       </c>
     </row>
   </sheetData>
